--- a/medicine/Mort/Terrorisme_en_1963/Terrorisme_en_1963.xlsx
+++ b/medicine/Mort/Terrorisme_en_1963/Terrorisme_en_1963.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,20 +520,49 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-Février
-Mars
-Avril
-Mai
-Juin
-30 juin, Italie : l'explosion d'une voiture piégée organisée par la Mafia dans le quartier de Ciaculli à Palerme tue sept carabinieri.
-Juillet
-Août
-Septembre
-15 septembre, États-Unis : un attentat à la bombe est organisé par le Ku Klux Kan contre l'Église baptiste de la 16e rue à Birmingham, en Alabama. Quatre fillettes sont tuées et vingt-deux autres blessées[1]. Un des 45 attentats racistes dans le sud des États-Unis pendant une décennie.
-Octobre
-Novembre
-Décembre</t>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>30 juin, Italie : l'explosion d'une voiture piégée organisée par la Mafia dans le quartier de Ciaculli à Palerme tue sept carabinieri.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1963</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1963</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>15 septembre, États-Unis : un attentat à la bombe est organisé par le Ku Klux Kan contre l'Église baptiste de la 16e rue à Birmingham, en Alabama. Quatre fillettes sont tuées et vingt-deux autres blessées. Un des 45 attentats racistes dans le sud des États-Unis pendant une décennie.</t>
         </is>
       </c>
     </row>
